--- a/Lab Files/Orders.xlsx
+++ b/Lab Files/Orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4F73D-AD1C-4B9C-8746-64D8B602F7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B70133-4B01-40BF-9A30-2C4F04BAADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{40219B55-816A-467A-AC60-F4F4650B03FB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40219B55-816A-467A-AC60-F4F4650B03FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>6/30/2020</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Gross</t>
   </si>
   <si>
     <t>Units</t>
@@ -182,17 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ADD74C-4A75-443A-AB91-58923D51494B}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +515,7 @@
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
@@ -527,33 +523,34 @@
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -563,7 +560,7 @@
       <c r="C2">
         <v>9504</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -579,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -589,7 +586,7 @@
       <c r="C3">
         <v>9700</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -605,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -615,7 +612,7 @@
       <c r="C4">
         <v>9414</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -631,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -641,7 +638,7 @@
       <c r="C5">
         <v>3766</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -657,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -667,7 +664,7 @@
       <c r="C6">
         <v>5057</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -683,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -693,7 +690,7 @@
       <c r="C7">
         <v>1359</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -709,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -719,7 +716,7 @@
       <c r="C8">
         <v>1534</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -735,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -745,7 +742,7 @@
       <c r="C9">
         <v>5425</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -761,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -771,7 +768,7 @@
       <c r="C10">
         <v>1664</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -787,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -797,7 +794,7 @@
       <c r="C11">
         <v>2877</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -813,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
@@ -823,7 +820,7 @@
       <c r="C12">
         <v>1880</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -839,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
@@ -849,7 +846,7 @@
       <c r="C13">
         <v>5008</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -865,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1013</v>
       </c>
@@ -875,7 +872,7 @@
       <c r="C14">
         <v>8517</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -891,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1014</v>
       </c>
@@ -901,7 +898,7 @@
       <c r="C15">
         <v>3052</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -917,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1015</v>
       </c>
@@ -927,7 +924,7 @@
       <c r="C16">
         <v>3747</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -953,7 +950,7 @@
       <c r="C17">
         <v>544</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -979,7 +976,7 @@
       <c r="C18">
         <v>9814</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1005,7 +1002,7 @@
       <c r="C19">
         <v>5613</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1031,7 +1028,7 @@
       <c r="C20">
         <v>4052</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1057,7 +1054,7 @@
       <c r="C21">
         <v>3454</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1083,7 +1080,7 @@
       <c r="C22">
         <v>5638</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1109,7 +1106,7 @@
       <c r="C23">
         <v>7121</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1135,7 +1132,7 @@
       <c r="C24">
         <v>8290</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1161,7 +1158,7 @@
       <c r="C25">
         <v>3564</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1187,7 +1184,7 @@
       <c r="C26">
         <v>8584</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">

--- a/Lab Files/Orders.xlsx
+++ b/Lab Files/Orders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B70133-4B01-40BF-9A30-2C4F04BAADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478CBF7-8901-4D5D-A2BA-DE80A9553D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40219B55-816A-467A-AC60-F4F4650B03FB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>6/30/2020</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +551,9 @@
       <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
